--- a/Sprint 2/Sprint 2 documents/Meeting_Minutes_Sprint_2.xlsx
+++ b/Sprint 2/Sprint 2 documents/Meeting_Minutes_Sprint_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carla\Desktop\341-project\ctrl_c_ctrl_v-SOEN341_Project_F24\Sprint 2\Meeting Minutes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carla\Desktop\341-project\ctrl_c_ctrl_v-SOEN341_Project_F24\Sprint 2\Sprint 2 documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9309AD9F-E853-4A51-BCD4-6A34225E5C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F37219-00ED-4B11-95C3-283C8E4C7A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{1BA0CD9A-B9E0-48D4-86D3-C9682EC1275D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1BA0CD9A-B9E0-48D4-86D3-C9682EC1275D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="79">
   <si>
     <t>Daily Scrum</t>
   </si>
@@ -283,6 +283,15 @@
   <si>
     <t xml:space="preserve">We reviewed the CSV file upload feature and discussed improvements to ensure data transmitted effectively to the API. Team members shared insights on optimizing the upload function and strategies to enhance accuracy. Error handling was also reviewed to make sure that data integrity was maintained across uploads.
 </t>
+  </si>
+  <si>
+    <t>1) PR review and acceptance testing for CSV upload
+2) Sprint planning and user stories update
+3) Issue creation for sprint documentation
+4) TA assistance</t>
+  </si>
+  <si>
+    <t>During this meeting, the team reviewed recent pull requests to ensure they met project standards and resolved any outstanding issues. We finalized the functionality of the CSV upload page and performed acceptance tests to validate its performance. For sprint planning, we added additional user stories to better align with the project timeline and updated the contribution log. We also created an issue to centralize sprint documents, ensuring all related materials were available and well-organized. Finally, we discussed several challenges encountered on the Members page and addressed them, and Khalil sent an email to the TA requesting further assistance on specific technical queries.</t>
   </si>
 </sst>
 </file>
@@ -648,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ADACE44-A1BC-47E6-A04D-E724ACE2BBAC}">
   <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="51" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1145,25 +1154,33 @@
       <c r="F22" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="279" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="E23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
